--- a/Original/Files/慧与大数据/AI课程/人工智能课程开发及授课计划2018-1-14.xlsx
+++ b/Original/Files/慧与大数据/AI课程/人工智能课程开发及授课计划2018-1-14.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t xml:space="preserve">人工智能课程大纲总纲 </t>
   </si>
@@ -314,6 +314,82 @@
   </si>
   <si>
     <t>完成时限</t>
+  </si>
+  <si>
+    <t>算法及其应用</t>
+  </si>
+  <si>
+    <r>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及其应用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kmean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及其应用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PCA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及其应用</t>
+    </r>
+  </si>
+  <si>
+    <t>线性回归及其应用</t>
+  </si>
+  <si>
+    <t>逻辑回归及其应用</t>
+  </si>
+  <si>
+    <t>神经网络及其应用</t>
+  </si>
+  <si>
+    <t>决策树及其应用</t>
+  </si>
+  <si>
+    <r>
+      <t>SVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及其应用</t>
+    </r>
+  </si>
+  <si>
+    <t>投资市场基础</t>
+  </si>
+  <si>
+    <t>交易数据获取及可视化</t>
+  </si>
+  <si>
+    <t>机器学习算法在量化交易市场的应用</t>
   </si>
 </sst>
 </file>
@@ -322,9 +398,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -364,8 +440,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,39 +516,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,88 +577,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -523,187 +599,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,26 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -854,15 +910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -882,7 +929,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +959,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,10 +985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,138 +997,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,6 +1189,9 @@
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1502,7 +1581,7 @@
       <c r="D4" s="14">
         <v>104</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1517,7 +1596,7 @@
       <c r="D5" s="14">
         <v>24</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1534,7 +1613,7 @@
       <c r="D6" s="14">
         <v>64</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1549,7 +1628,7 @@
       <c r="D7" s="14">
         <v>80</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1564,7 +1643,7 @@
       <c r="D8" s="14">
         <v>48</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1581,7 +1660,7 @@
       <c r="D9" s="14">
         <v>35</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1596,7 +1675,7 @@
       <c r="D10" s="14">
         <v>35</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1611,7 +1690,7 @@
       <c r="D11" s="14">
         <v>25</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1628,7 +1707,7 @@
       <c r="D12" s="14">
         <v>16</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1643,7 +1722,7 @@
       <c r="D13" s="14">
         <v>35</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1658,7 +1737,7 @@
       <c r="D14" s="14">
         <v>35</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1672,18 +1751,18 @@
       <c r="C15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="23">
         <v>35</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="12.75" spans="3:4">
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="25">
         <f>SUM(D4:D15)</f>
         <v>536</v>
       </c>
@@ -1708,10 +1787,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1904,13 +1983,85 @@
         <v>43220</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="21"/>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="21"/>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="21"/>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="21"/>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="21"/>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="21"/>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="21"/>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="21"/>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="21"/>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
